--- a/hs/KernelPerceptron/KP_Performance_Results.xlsx
+++ b/hs/KernelPerceptron/KP_Performance_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\MLCert\hs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EB8FBF-E64E-455F-B137-EDB3D5FF5B49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F57FF7-E2D1-4A89-A580-18AE74344F4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenError" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="257">
   <si>
     <t>Data File Index</t>
   </si>
@@ -175,12 +175,6 @@
   </si>
   <si>
     <t>Sonar75</t>
-  </si>
-  <si>
-    <t>Left Axis</t>
-  </si>
-  <si>
-    <t>Right Axis</t>
   </si>
   <si>
     <t>Kernel Perceptron</t>
@@ -890,10 +884,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="105"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="5"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -972,7 +966,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:shade val="72000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1132,7 +1128,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:schemeClr val="accent3">
+                <a:tint val="86000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1293,7 +1291,7 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
+                <a:tint val="44000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1466,7 +1464,9 @@
                 <c:order val="0"/>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent1"/>
+                    <a:schemeClr val="accent3">
+                      <a:shade val="44000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1637,7 +1637,9 @@
                 <c:order val="1"/>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2"/>
+                    <a:schemeClr val="accent3">
+                      <a:shade val="58000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1808,7 +1810,9 @@
                 <c:order val="3"/>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent4"/>
+                    <a:schemeClr val="accent3">
+                      <a:shade val="86000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -1979,7 +1983,7 @@
                 <c:order val="4"/>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent5"/>
+                    <a:schemeClr val="accent3"/>
                   </a:solidFill>
                   <a:ln>
                     <a:noFill/>
@@ -2150,8 +2154,8 @@
                 <c:order val="6"/>
                 <c:spPr>
                   <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
+                    <a:schemeClr val="accent3">
+                      <a:tint val="58000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:ln>
@@ -2630,1922 +2634,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="105"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Timing</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Analysis for Synthetic Files</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Timing!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Left Axis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Timing!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Timing!$B$2:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9346-4F9D-A084-E0A6CA914929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Timing!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Budget Kernel Perceptron</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>Timing!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Timing!$C$2:$C$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.3498</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.34360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.34560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.34680000000000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.35039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.34839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.35320000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.34820000000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.35020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.35020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.34860000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.34920000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.34440000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34620000000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.35799999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.34920000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.34920000000000007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.34760000000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.3498</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9346-4F9D-A084-E0A6CA914929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Timing!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Description Kernel Perceptron</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>Timing!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Timing!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>0.29459999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29380000000000006</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29320000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.29399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.29459999999999997</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2944</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.29339999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.29500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.29360000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.29380000000000006</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.29420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.29400000000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.29480000000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.29339999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.29399999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.29500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.29420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.29380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.29380000000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.29500000000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9346-4F9D-A084-E0A6CA914929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Timing!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Timing!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Timing!$E$2:$E$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9346-4F9D-A084-E0A6CA914929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="477533112"/>
-        <c:axId val="477529832"/>
-      </c:barChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Timing!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Timing!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Timing!$F$2:$F$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9346-4F9D-A084-E0A6CA914929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Timing!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Timing!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Timing!$G$2:$G$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9346-4F9D-A084-E0A6CA914929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Timing!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Timing!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Timing!$H$2:$H$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9346-4F9D-A084-E0A6CA914929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Timing!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Right Axis</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Timing!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Timing!$I$2:$I$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9346-4F9D-A084-E0A6CA914929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Timing!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Kernel Perceptron</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="110000"/>
-                    <a:satMod val="105000"/>
-                    <a:tint val="67000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="103000"/>
-                    <a:tint val="73000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="105000"/>
-                    <a:satMod val="109000"/>
-                    <a:tint val="81000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                  <a:shade val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="stdErr"/>
-            <c:noEndCap val="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:errBars>
-          <c:cat>
-            <c:numRef>
-              <c:f>Timing!$A$2:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Timing!$J$2:$J$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>199.9434</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>202.02459999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>202.14519999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>200.9006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>202.012</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>201.78599999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>199.99579999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>201.45499999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>201.36160000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>202.54619999999994</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>200.0514</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>200.60939999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>200.47879999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>203.65479999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>202.86579999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>201.82739999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>200.62719999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>202.40899999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>201.20320000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>201.6052</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9346-4F9D-A084-E0A6CA914929}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="411428888"/>
-        <c:axId val="411439712"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="477533112"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Synthetic</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Dataset File index</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="477529832"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="477529832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Run Time  (Seconds)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="477533112"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="411439712"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="50000"/>
-                        <a:lumOff val="50000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Average</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Run Time (Seconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="50000"/>
-                      <a:lumOff val="50000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="411428888"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="411428888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411439712"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="3"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="4"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:legendEntry>
-        <c:idx val="5"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="5"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4570,11 +2662,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Timing</a:t>
+              <a:t>Iris</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Analysis for Iris Dataset</a:t>
+              <a:t> Data Set Timing</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4617,14 +2709,16 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v>Budget Kernel Perceptron</c:v>
+            <c:v>Kernel Perceptron</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent3">
+                <a:shade val="65000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4724,30 +2818,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Timing!$C$22:$C$23</c:f>
+              <c:f>Timing!$B$22:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.9999999999999992E-3</c:v>
+                  <c:v>8.7200000000000014E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6E-3</c:v>
+                  <c:v>0.22080000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3EF8-4DCB-8A87-ACC09B9D146B}"/>
+              <c16:uniqueId val="{00000000-0A6D-4E93-A0B6-D5891ED1787B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>Description Kernel Perceptron</c:v>
+            <c:v>Budget Kernel Perceptron</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4851,35 +2945,35 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Timing!$D$22:$D$23</c:f>
+              <c:f>Timing!$C$22:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>4.2000000000000006E-3</c:v>
+                  <c:v>4.9999999999999992E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8000000000000005E-3</c:v>
+                  <c:v>7.6E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3EF8-4DCB-8A87-ACC09B9D146B}"/>
+              <c16:uniqueId val="{00000001-0A6D-4E93-A0B6-D5891ED1787B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Kernel Perceptron</c:v>
+            <c:v>Description Kernel Perceptron</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent3">
-                <a:lumMod val="60000"/>
+                <a:tint val="65000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -4980,22 +3074,22 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Timing!$J$22:$J$23</c:f>
+              <c:f>Timing!$D$22:$D$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>8.7200000000000014E-2</c:v>
+                  <c:v>4.2000000000000006E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22080000000000002</c:v>
+                  <c:v>6.8000000000000005E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-3EF8-4DCB-8A87-ACC09B9D146B}"/>
+              <c16:uniqueId val="{00000002-0A6D-4E93-A0B6-D5891ED1787B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5010,706 +3104,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="408991744"/>
-        <c:axId val="408990104"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:v>Series1</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst>
-                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$A$22:$A$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Iris50</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Iris75</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$B$22:$B$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="2"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-3EF8-4DCB-8A87-ACC09B9D146B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="3"/>
-                <c:order val="3"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent4"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$A$22:$A$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Iris50</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Iris75</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$E$22:$E$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="2"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-3EF8-4DCB-8A87-ACC09B9D146B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="4"/>
-                <c:order val="4"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent5"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$A$22:$A$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Iris50</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Iris75</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$F$22:$F$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="2"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-3EF8-4DCB-8A87-ACC09B9D146B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="5"/>
-                <c:order val="5"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent6"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$A$22:$A$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Iris50</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Iris75</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$G$22:$G$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="2"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000005-3EF8-4DCB-8A87-ACC09B9D146B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="6"/>
-                <c:order val="6"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$A$22:$A$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Iris50</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Iris75</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$H$22:$H$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="2"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000006-3EF8-4DCB-8A87-ACC09B9D146B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="7"/>
-                <c:order val="7"/>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="60000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:dLbls>
-                  <c:spPr>
-                    <a:noFill/>
-                    <a:ln>
-                      <a:noFill/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                  <c:txPr>
-                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                      <a:spAutoFit/>
-                    </a:bodyPr>
-                    <a:lstStyle/>
-                    <a:p>
-                      <a:pPr>
-                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1">
-                              <a:lumMod val="75000"/>
-                              <a:lumOff val="25000"/>
-                            </a:schemeClr>
-                          </a:solidFill>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:defRPr>
-                      </a:pPr>
-                      <a:endParaRPr lang="en-US"/>
-                    </a:p>
-                  </c:txPr>
-                  <c:dLblPos val="outEnd"/>
-                  <c:showLegendKey val="0"/>
-                  <c:showVal val="1"/>
-                  <c:showCatName val="0"/>
-                  <c:showSerName val="0"/>
-                  <c:showPercent val="0"/>
-                  <c:showBubbleSize val="0"/>
-                  <c:showLeaderLines val="0"/>
-                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:showLeaderLines val="1"/>
-                      <c15:leaderLines>
-                        <c:spPr>
-                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1">
-                                <a:lumMod val="35000"/>
-                                <a:lumOff val="65000"/>
-                              </a:schemeClr>
-                            </a:solidFill>
-                            <a:round/>
-                          </a:ln>
-                          <a:effectLst/>
-                        </c:spPr>
-                      </c15:leaderLines>
-                    </c:ext>
-                  </c:extLst>
-                </c:dLbls>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$A$22:$A$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>Iris50</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>Iris75</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>Timing!$I$22:$I$23</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="2"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000007-3EF8-4DCB-8A87-ACC09B9D146B}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="308909840"/>
+        <c:axId val="308911152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="408991744"/>
+        <c:axId val="308909840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5752,7 +3151,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408990104"/>
+        <c:crossAx val="308911152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5760,9 +3159,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="408990104"/>
+        <c:axId val="308911152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5801,11 +3201,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Average</a:t>
+                  <a:t>Time</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Run Time (Seconds)</a:t>
+                  <a:t> (Seconds)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -5871,7 +3271,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="408991744"/>
+        <c:crossAx val="308909840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5951,123 +3351,1391 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Budget</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> and Description Kernel Perceptron Timing</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Budget Kernel Perceptron</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Timing!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Timing!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.3498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34920000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3D3-4F37-B43E-3DBE27DF882C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Description Kernel Perceptron</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Timing!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Timing!$D$2:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.29459999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29380000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29320000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.29459999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2944</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.29339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.29360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.29380000000000006</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.29480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.29339999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.29399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.29500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.29420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.29380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.29380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.29500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E3D3-4F37-B43E-3DBE27DF882C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="420870112"/>
+        <c:axId val="418247592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="420870112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Trial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Index</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418247592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418247592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.27"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420870112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Kernel Perceptron Synthetic Timing</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Timing!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Kernel Perceptron</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>Timing!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Timing!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>199.9434</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>202.02459999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202.14519999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.9006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>202.012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.78599999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>199.99579999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>201.45499999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>201.36160000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>202.54619999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.0514</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200.60939999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>200.47879999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>203.65479999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>202.86579999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>201.82739999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200.62719999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>202.40899999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>201.20320000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>201.6052</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E118-4AE0-AE04-242D1C929336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="420871752"/>
+        <c:axId val="414859992"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="420871752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Trial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Index</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414859992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="414859992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="420871752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
   <cs:variation>
-    <a:lumMod val="60000"/>
+    <a:tint val="88500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
+    <a:tint val="55000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="80000"/>
+    <a:tint val="75000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
+    <a:tint val="98500"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="50000"/>
+    <a:tint val="30000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
+    <a:tint val="60000"/>
   </cs:variation>
   <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
+    <a:tint val="80000"/>
   </cs:variation>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -6575,18 +5243,18 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="325">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6594,8 +5262,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -6616,7 +5284,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6632,7 +5300,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -6640,8 +5308,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6675,62 +5343,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="15875" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6742,21 +5384,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -6765,10 +5404,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6785,18 +5424,20 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6811,15 +5452,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -6830,16 +5471,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6848,16 +5490,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -6866,15 +5509,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -6893,16 +5542,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6911,16 +5561,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="75000"/>
             <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6929,16 +5580,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6948,8 +5600,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6959,7 +5611,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -6967,7 +5619,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6976,21 +5628,10 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6998,17 +5639,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -7018,26 +5659,27 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="2"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -7047,8 +5689,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7067,8 +5709,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -7080,8 +5722,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -7091,13 +5733,522 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7645,23 +6796,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>328610</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128586</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB2D0512-1A6C-4027-A10A-532752ECCCEC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBADFE07-BE06-442C-AB26-EFC0FB6385C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7681,23 +6832,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6CBEBAB-2563-4BCE-A8C0-37382E2AA9F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E78DEFD-3B97-4511-AD5D-C93209D5A774}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7710,6 +6861,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7B96EA-9E82-4D1E-A1E2-1F4F0EEDD66E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7983,8 +7170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9206,22 +8393,22 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
+        <v>226</v>
+      </c>
+      <c r="F60" t="s">
+        <v>227</v>
+      </c>
+      <c r="G60" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" t="s">
         <v>228</v>
       </c>
-      <c r="F60" t="s">
+      <c r="I60" t="s">
         <v>229</v>
       </c>
-      <c r="G60" t="s">
-        <v>233</v>
-      </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>230</v>
-      </c>
-      <c r="I60" t="s">
-        <v>231</v>
-      </c>
-      <c r="J60" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
@@ -9752,7 +8939,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B82" t="s">
         <v>24</v>
@@ -9764,7 +8951,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B83" t="s">
         <v>25</v>
@@ -9776,7 +8963,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B85" t="s">
         <v>27</v>
@@ -9788,7 +8975,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
         <v>28</v>
@@ -9809,7 +8996,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D4E763-7B26-4572-B2E3-B397149B68CA}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
@@ -9840,16 +9027,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9857,16 +9044,16 @@
         <v>0.1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9874,16 +9061,16 @@
         <v>0.2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9891,16 +9078,16 @@
         <v>0.3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9908,16 +9095,16 @@
         <v>0.4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9925,16 +9112,16 @@
         <v>0.5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9942,16 +9129,16 @@
         <v>0.6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9959,13 +9146,13 @@
         <v>0.7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9973,13 +9160,13 @@
         <v>0.8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9987,13 +9174,13 @@
         <v>0.9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -10001,13 +9188,13 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -10029,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D15" s="4">
         <v>6.7621700000000005E+271</v>
@@ -10038,7 +9225,7 @@
         <v>1.07728E+214</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -10046,7 +9233,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D16" s="4">
         <v>1.44968E+271</v>
@@ -10055,7 +9242,7 @@
         <v>2.3094800000000001E+213</v>
       </c>
       <c r="F16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -10063,7 +9250,7 @@
         <v>0.2</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4">
         <v>1.42834E+269</v>
@@ -10072,7 +9259,7 @@
         <v>2.27548E+211</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -10080,7 +9267,7 @@
         <v>0.3</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4">
         <v>6.4679200000000003E+265</v>
@@ -10089,7 +9276,7 @@
         <v>1.0304E+208</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10097,7 +9284,7 @@
         <v>0.4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" s="4">
         <v>1.3460800000000001E+261</v>
@@ -10106,7 +9293,7 @@
         <v>2.1444299999999999E+203</v>
       </c>
       <c r="F19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10114,7 +9301,7 @@
         <v>0.5</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D20" s="4">
         <v>1.2875000000000001E+255</v>
@@ -10123,7 +9310,7 @@
         <v>2.0511100000000001E+197</v>
       </c>
       <c r="F20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10131,7 +9318,7 @@
         <v>0.6</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D21" s="4">
         <v>5.6597900000000001E+247</v>
@@ -10140,7 +9327,7 @@
         <v>9.0165599999999994E+189</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -10148,7 +9335,7 @@
         <v>0.7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D22" s="4">
         <v>1.14347E+239</v>
@@ -10162,7 +9349,7 @@
         <v>0.8</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D23" s="4">
         <v>1.06175E+229</v>
@@ -10176,7 +9363,7 @@
         <v>0.9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D24" s="4">
         <v>4.5309799999999996E+217</v>
@@ -10190,7 +9377,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D25" s="4">
         <v>8.8865999999999997E+204</v>
@@ -10218,16 +9405,16 @@
         <v>0</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -10235,16 +9422,16 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -10252,16 +9439,16 @@
         <v>0.2</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -10269,16 +9456,16 @@
         <v>0.3</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -10286,16 +9473,16 @@
         <v>0.4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10303,16 +9490,16 @@
         <v>0.5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -10320,13 +9507,13 @@
         <v>0.6</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -10334,13 +9521,13 @@
         <v>0.7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -10348,13 +9535,13 @@
         <v>0.8</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -10362,13 +9549,13 @@
         <v>0.9</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -10376,13 +9563,13 @@
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -10404,16 +9591,16 @@
         <v>0</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -10421,16 +9608,16 @@
         <v>0.1</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -10438,16 +9625,16 @@
         <v>0.2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -10455,16 +9642,16 @@
         <v>0.3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -10472,16 +9659,16 @@
         <v>0.4</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -10489,16 +9676,16 @@
         <v>0.5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F46" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -10506,16 +9693,16 @@
         <v>0.6</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F47" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -10523,13 +9710,13 @@
         <v>0.7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -10537,13 +9724,13 @@
         <v>0.8</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -10551,13 +9738,13 @@
         <v>0.9</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -10565,13 +9752,13 @@
         <v>1</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -10593,16 +9780,16 @@
         <v>0</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -10610,16 +9797,16 @@
         <v>0.1</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -10627,16 +9814,16 @@
         <v>0.2</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -10644,16 +9831,16 @@
         <v>0.3</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10661,16 +9848,16 @@
         <v>0.4</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F58" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -10678,16 +9865,16 @@
         <v>0.5</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -10695,16 +9882,16 @@
         <v>0.6</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -10712,13 +9899,13 @@
         <v>0.7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -10726,13 +9913,13 @@
         <v>0.8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -10740,13 +9927,13 @@
         <v>0.9</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -10754,13 +9941,13 @@
         <v>1</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -10784,7 +9971,7 @@
         <v>4.6316835694926478E+77</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -10798,7 +9985,7 @@
         <v>9.5466113672488865E+68</v>
       </c>
       <c r="F68" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -10812,7 +9999,7 @@
         <v>8.3595005184594924E+42</v>
       </c>
       <c r="F69" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -10826,7 +10013,7 @@
         <v>0.31097977050255327</v>
       </c>
       <c r="F70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -10929,7 +10116,7 @@
         <v>1.0783978666860256E+68</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -10943,7 +10130,7 @@
         <v>2.2227436693499066E+59</v>
       </c>
       <c r="F82" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -10957,7 +10144,7 @@
         <v>1.9463478863377805E+33</v>
       </c>
       <c r="F83" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -10972,7 +10159,7 @@
         <v>9.101443183444155E-2</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -11059,40 +10246,35 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAB718F-DF94-4DDA-BA48-1B1D5687EE31}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>47</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <f>(196.85+200.581+197.57+198.813+205.903)/5</f>
+        <v>199.9434</v>
       </c>
       <c r="C2">
         <f>(0.462+0.322+0.323+0.322+0.32)/5</f>
@@ -11102,14 +10284,14 @@
         <f>(0.409+0.267+0.265+0.267+0.265)/5</f>
         <v>0.29459999999999997</v>
       </c>
-      <c r="J2">
-        <f>(196.85+200.581+197.57+198.813+205.903)/5</f>
-        <v>199.9434</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
+      </c>
+      <c r="B3">
+        <f>(201.912+200.987+201.092+199.391+206.741)/5</f>
+        <v>202.02459999999999</v>
       </c>
       <c r="C3">
         <f>(0.448+0.317+0.319+0.316+0.318)/5</f>
@@ -11119,14 +10301,14 @@
         <f>(0.406+0.267+0.264+0.267+0.265)/5</f>
         <v>0.29380000000000006</v>
       </c>
-      <c r="J3">
-        <f>(201.912+200.987+201.092+199.391+206.741)/5</f>
-        <v>202.02459999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4">
+        <f>(202.428+200.622+199.961+199.999+207.716)/5</f>
+        <v>202.14519999999999</v>
       </c>
       <c r="C4">
         <f>(0.452+0.316+0.321+0.318+0.318)/5</f>
@@ -11136,14 +10318,14 @@
         <f>(0.406+0.266+0.263+0.267+0.264)/5</f>
         <v>0.29320000000000002</v>
       </c>
-      <c r="J4">
-        <f>(202.428+200.622+199.961+199.999+207.716)/5</f>
-        <v>202.14519999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5">
+        <f>(199.584+199.628+199.387+199.64+206.264)/5</f>
+        <v>200.9006</v>
       </c>
       <c r="C5">
         <f>(0.453+0.319+0.319+0.318+0.319)/5</f>
@@ -11153,14 +10335,14 @@
         <f>(0.405+0.268+0.265+0.268+0.264)/5</f>
         <v>0.29399999999999998</v>
       </c>
-      <c r="J5">
-        <f>(199.584+199.628+199.387+199.64+206.264)/5</f>
-        <v>200.9006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <f>(202.048+199.581+198.762+202.233+207.436)/5</f>
+        <v>202.012</v>
       </c>
       <c r="C6">
         <f>(0.456+0.318+0.32+0.32+0.32)/5</f>
@@ -11170,14 +10352,14 @@
         <f>(0.408+0.266+0.265+0.268+0.266)/5</f>
         <v>0.29459999999999997</v>
       </c>
-      <c r="J6">
-        <f>(202.048+199.581+198.762+202.233+207.436)/5</f>
-        <v>202.012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7">
+        <f>(201.118+202.436+199.796+199.275+206.305)/5</f>
+        <v>201.78599999999997</v>
       </c>
       <c r="C7">
         <f>(0.464+0.322+0.323+0.321+0.322)/5</f>
@@ -11187,14 +10369,14 @@
         <f>(0.41+0.267+0.266+0.266+0.263)/5</f>
         <v>0.2944</v>
       </c>
-      <c r="J7">
-        <f>(201.118+202.436+199.796+199.275+206.305)/5</f>
-        <v>201.78599999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
+      </c>
+      <c r="B8">
+        <f>(199.591+199.239+197.91+197.968+205.271)/5</f>
+        <v>199.99579999999997</v>
       </c>
       <c r="C8">
         <f>(0.454+0.322+0.321+0.323+0.322)/5</f>
@@ -11204,14 +10386,14 @@
         <f>(0.404+0.268+0.263+0.266+0.266)/5</f>
         <v>0.29339999999999999</v>
       </c>
-      <c r="J8">
-        <f>(199.591+199.239+197.91+197.968+205.271)/5</f>
-        <v>199.99579999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9">
+        <f>(200.324+199.908+198.839+200.583+207.621)/5</f>
+        <v>201.45499999999998</v>
       </c>
       <c r="C9">
         <f>(0.466+0.325+0.324+0.326+0.325)/5</f>
@@ -11221,14 +10403,14 @@
         <f>(0.406+0.268+0.266+0.269+0.266)/5</f>
         <v>0.29500000000000004</v>
       </c>
-      <c r="J9">
-        <f>(200.324+199.908+198.839+200.583+207.621)/5</f>
-        <v>201.45499999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10">
+        <f>(201.124+201.844+199.87+197.443+206.527)/5</f>
+        <v>201.36160000000001</v>
       </c>
       <c r="C10">
         <f>(0.46+0.321+0.321+0.32+0.319)/5</f>
@@ -11238,14 +10420,14 @@
         <f>(0.407+0.266+0.264+0.267+0.264)/5</f>
         <v>0.29360000000000003</v>
       </c>
-      <c r="J10">
-        <f>(201.124+201.844+199.87+197.443+206.527)/5</f>
-        <v>201.36160000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11">
+        <f>(202.562+200.011+200.402+201.503+208.253)/5</f>
+        <v>202.54619999999994</v>
       </c>
       <c r="C11">
         <f>(0.459+0.324+0.321+0.323+0.324)/5</f>
@@ -11255,14 +10437,14 @@
         <f>(0.405+0.269+0.263+0.267+0.265)/5</f>
         <v>0.29380000000000006</v>
       </c>
-      <c r="J11">
-        <f>(202.562+200.011+200.402+201.503+208.253)/5</f>
-        <v>202.54619999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
+      </c>
+      <c r="B12">
+        <f>(199.746+198.875+198.366+198.066+205.204)/5</f>
+        <v>200.0514</v>
       </c>
       <c r="C12">
         <f>(0.459+0.321+0.323+0.324+0.324)/5</f>
@@ -11272,14 +10454,14 @@
         <f>(0.405+0.268+0.265+0.269+0.264)/5</f>
         <v>0.29420000000000002</v>
       </c>
-      <c r="J12">
-        <f>(199.746+198.875+198.366+198.066+205.204)/5</f>
-        <v>200.0514</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
+      </c>
+      <c r="B13">
+        <f>(200.343+198.52+199.919+197.629+206.636)/5</f>
+        <v>200.60939999999999</v>
       </c>
       <c r="C13">
         <f>(0.455+0.321+0.322+0.321+0.324)/5</f>
@@ -11289,14 +10471,14 @@
         <f>(0.407+0.266+0.265+0.267+0.265)/5</f>
         <v>0.29400000000000004</v>
       </c>
-      <c r="J13">
-        <f>(200.343+198.52+199.919+197.629+206.636)/5</f>
-        <v>200.60939999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
+      </c>
+      <c r="B14">
+        <f>(200.139+201.385+197.294+197.214+206.362)/5</f>
+        <v>200.47879999999998</v>
       </c>
       <c r="C14">
         <f>(0.458+0.323+0.322+0.322+0.321)/5</f>
@@ -11306,14 +10488,14 @@
         <f>(0.41+0.268+0.264+0.268+0.264)/5</f>
         <v>0.29480000000000001</v>
       </c>
-      <c r="J14">
-        <f>(200.139+201.385+197.294+197.214+206.362)/5</f>
-        <v>200.47879999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
+      </c>
+      <c r="B15">
+        <f>(202.604+201.954+202.032+201.117+210.567)/5</f>
+        <v>203.65479999999999</v>
       </c>
       <c r="C15">
         <f>(0.451+0.316+0.321+0.318+0.316)/5</f>
@@ -11323,14 +10505,14 @@
         <f>(0.402+0.267+0.265+0.268+0.265)/5</f>
         <v>0.29339999999999999</v>
       </c>
-      <c r="J15">
-        <f>(202.604+201.954+202.032+201.117+210.567)/5</f>
-        <v>203.65479999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16">
+        <f>(204.526+202.242+198.686+198.7+210.175)/5</f>
+        <v>202.86579999999998</v>
       </c>
       <c r="C16">
         <f>(0.456+0.317+0.321+0.316+0.321)/5</f>
@@ -11340,14 +10522,14 @@
         <f>(0.406+0.266+0.267+0.267+0.264)/5</f>
         <v>0.29399999999999998</v>
       </c>
-      <c r="J16">
-        <f>(204.526+202.242+198.686+198.7+210.175)/5</f>
-        <v>202.86579999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
+      </c>
+      <c r="B17">
+        <f>(201.14+199.529+198.682+200.472+209.314)/5</f>
+        <v>201.82739999999998</v>
       </c>
       <c r="C17">
         <f>(0.46+0.324+0.363+0.322+0.321)/5</f>
@@ -11357,14 +10539,14 @@
         <f>(0.409+0.267+0.265+0.268+0.266)/5</f>
         <v>0.29500000000000004</v>
       </c>
-      <c r="J17">
-        <f>(201.14+199.529+198.682+200.472+209.314)/5</f>
-        <v>201.82739999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18">
+        <f>(200.815+196.99+200.107+197.42+207.804)/5</f>
+        <v>200.62719999999999</v>
       </c>
       <c r="C18">
         <f>(0.458+0.32+0.323+0.321+0.324)/5</f>
@@ -11374,14 +10556,14 @@
         <f>(0.407+0.266+0.264+0.268+0.266)/5</f>
         <v>0.29420000000000002</v>
       </c>
-      <c r="J18">
-        <f>(200.815+196.99+200.107+197.42+207.804)/5</f>
-        <v>200.62719999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19">
+        <f>(201.124+201.456+200.643+200.159+208.663)/5</f>
+        <v>202.40899999999999</v>
       </c>
       <c r="C19">
         <f>(0.459+0.323+0.32+0.322+0.322)/5</f>
@@ -11391,14 +10573,14 @@
         <f>(0.405+0.268+0.265+0.267+0.264)/5</f>
         <v>0.29380000000000001</v>
       </c>
-      <c r="J19">
-        <f>(201.124+201.456+200.643+200.159+208.663)/5</f>
-        <v>202.40899999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
+      </c>
+      <c r="B20">
+        <f>(200.642+199.833+199.627+199.624+206.29)/5</f>
+        <v>201.20320000000001</v>
       </c>
       <c r="C20">
         <f>(0.458+0.319+0.32+0.32+0.321)/5</f>
@@ -11408,14 +10590,14 @@
         <f>(0.409+0.265+0.264+0.267+0.264)/5</f>
         <v>0.29380000000000001</v>
       </c>
-      <c r="J20">
-        <f>(200.642+199.833+199.627+199.624+206.29)/5</f>
-        <v>201.20320000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21">
+        <f>(202.236+200.64+198.093+200.082+206.975)/5</f>
+        <v>201.6052</v>
       </c>
       <c r="C21">
         <f>(0.459+0.322+0.322+0.323+0.323)/5</f>
@@ -11425,14 +10607,14 @@
         <f>(0.406+0.27+0.265+0.268+0.266)/5</f>
         <v>0.29500000000000004</v>
       </c>
-      <c r="J21">
-        <f>(202.236+200.64+198.093+200.082+206.975)/5</f>
-        <v>201.6052</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
+      </c>
+      <c r="B22">
+        <f>(0.094+0.085+0.085+0.085+0.087)/5</f>
+        <v>8.7200000000000014E-2</v>
       </c>
       <c r="C22">
         <f>(0.013+0.003+0.003+0.003+0.003)/5</f>
@@ -11442,14 +10624,14 @@
         <f>(0.013+0.002+0.002+0.002+0.002)/5</f>
         <v>4.2000000000000006E-3</v>
       </c>
-      <c r="J22">
-        <f>(0.094+0.085+0.085+0.085+0.087)/5</f>
-        <v>8.7200000000000014E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
+      </c>
+      <c r="B23">
+        <f>(0.232+0.218+0.22+0.218+0.216)/5</f>
+        <v>0.22080000000000002</v>
       </c>
       <c r="C23">
         <f>(0.017+0.006+0.005+0.005+0.005)/5</f>
@@ -11459,14 +10641,14 @@
         <f>(0.017+0.005+0.004+0.004+0.004)/5</f>
         <v>6.8000000000000005E-3</v>
       </c>
-      <c r="J23">
-        <f>(0.232+0.218+0.22+0.218+0.216)/5</f>
-        <v>0.22080000000000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>45</v>
+      </c>
+      <c r="B24">
+        <f>(1044.636+1046.609+1047.802+1046.586+1043.563)/5</f>
+        <v>1045.8391999999999</v>
       </c>
       <c r="C24">
         <f>(83.226+78.271+78.045+77.998+77.599)/5</f>
@@ -11476,14 +10658,14 @@
         <f>(68.773+65.812+65.477+65.397+65.385)/5</f>
         <v>66.168800000000005</v>
       </c>
-      <c r="J24">
-        <f>(1044.636+1046.609+1047.802+1046.586+1043.563)/5</f>
-        <v>1045.8391999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
+      </c>
+      <c r="B25">
+        <f>(2120.556+2123.456+2126.547+2127.52+2109.276)/5</f>
+        <v>2121.4710000000005</v>
       </c>
       <c r="C25">
         <f>(146.986+136.707+136.165+136.848+136.622)/5</f>
@@ -11492,10 +10674,6 @@
       <c r="D25">
         <f>(127.937+120.138+120.142+120.378+119.713)/5</f>
         <v>121.66159999999999</v>
-      </c>
-      <c r="J25">
-        <f>(2120.556+2123.456+2126.547+2127.52+2109.276)/5</f>
-        <v>2121.4710000000005</v>
       </c>
     </row>
   </sheetData>
@@ -11508,7 +10686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B9939-293C-4DC9-8D3A-5A6F24858279}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
@@ -11520,76 +10698,76 @@
   <sheetData>
     <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">

--- a/hs/KernelPerceptron/KP_Performance_Results.xlsx
+++ b/hs/KernelPerceptron/KP_Performance_Results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\MLCert\hs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\MLCert\hs\KernelPerceptron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F57FF7-E2D1-4A89-A580-18AE74344F4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EE4B3E-433F-4A2B-9068-AF0CB42E0350}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GenError" sheetId="1" r:id="rId1"/>
@@ -811,9 +811,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -852,7 +853,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -860,6 +861,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2641,6 +2643,561 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Budget Kernel Perceptron</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>GenError!$G$61:$G$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6999999999999913E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.19999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7000000000000024E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9000000000000017E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1000000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1000000000000019E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.0000000000000044E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.699999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3000000000000012E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3000000000000029E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.0000000000000053E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6393-43B1-85CB-49E1B6D3096E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Description Kernel Perceptron</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>GenError!$J$61:$J$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.0000000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7000000000000015E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.000000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2000000000000011E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5000000000000013E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0000000000000009E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2999999999999927E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0000000000000027E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.4999999999999902E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.599999999999993E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0000000000000053E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5000000000000022E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0000000000000018E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.100000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.4999999999999911E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.0000000000000036E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.7999999999999932E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4999999999999929E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0000000000000062E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5000000000000022E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6393-43B1-85CB-49E1B6D3096E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="430204144"/>
+        <c:axId val="430205456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="430204144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Trial Index</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430205456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="430205456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Generalization</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Error</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="430204144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
@@ -3351,7 +3908,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4109,7 +4666,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4707,6 +5264,12 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
   <cs:variation>
@@ -4733,7 +5296,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
 </cs:colorStyle>
@@ -6249,6 +6812,509 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6784,6 +7850,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B450601-605C-46C8-AA20-774768BCA87A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7170,8 +8272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8996,8 +10098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8D4E763-7B26-4572-B2E3-B397149B68CA}">
   <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10248,8 +11350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AAB718F-DF94-4DDA-BA48-1B1D5687EE31}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10686,8 +11788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B9939-293C-4DC9-8D3A-5A6F24858279}">
   <dimension ref="A1:AA25"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10801,7 +11903,7 @@
         <f>_xlfn.STDEV.S(B2:F2)</f>
         <v>3.6195069139317853</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <f>_xlfn.CONFIDENCE.NORM(0.05, H2, 5)</f>
         <v>3.1725793958339898</v>
       </c>
@@ -10833,7 +11935,7 @@
         <f>_xlfn.STDEV.S(K2:O2)</f>
         <v>6.2731172474297242E-2</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="7">
         <f>_xlfn.CONFIDENCE.NORM(0.05, Q2, 5)</f>
         <v>5.4985286670518725E-2</v>
       </c>
@@ -10864,7 +11966,7 @@
         <f>_xlfn.STDEV.S(T2:X2)</f>
         <v>6.3959362098132536E-2</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="7">
         <f>_xlfn.CONFIDENCE.NORM(0.05,Z2,5)</f>
         <v>5.6061822559912634E-2</v>
       </c>
@@ -10900,7 +12002,7 @@
         <f t="shared" ref="H3:H25" si="1">_xlfn.STDEV.S(B3:F3)</f>
         <v>2.7901305166604735</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <f t="shared" ref="I3:I25" si="2">_xlfn.CONFIDENCE.NORM(0.05, H3, 5)</f>
         <v>2.4456122890034879</v>
       </c>
@@ -10932,7 +12034,7 @@
         <f t="shared" ref="Q3:Q25" si="4">_xlfn.STDEV.S(K3:O3)</f>
         <v>5.837208236820042E-2</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="7">
         <f t="shared" ref="R3:R25" si="5">_xlfn.CONFIDENCE.NORM(0.05, Q3, 5)</f>
         <v>5.1164445936120496E-2</v>
       </c>
@@ -10964,7 +12066,7 @@
         <f t="shared" ref="Z3:Z25" si="7">_xlfn.STDEV.S(T3:X3)</f>
         <v>6.2735157607198E-2</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="7">
         <f t="shared" ref="AA3:AA25" si="8">_xlfn.CONFIDENCE.NORM(0.05,Z3,5)</f>
         <v>5.4988779729333435E-2</v>
       </c>
@@ -11000,7 +12102,7 @@
         <f t="shared" si="1"/>
         <v>3.1730448783463503</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <f t="shared" si="2"/>
         <v>2.7812453581316521</v>
       </c>
@@ -11032,7 +12134,7 @@
         <f t="shared" si="4"/>
         <v>5.9841457201508498E-2</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="7">
         <f t="shared" si="5"/>
         <v>5.2452386098070986E-2</v>
       </c>
@@ -11064,7 +12166,7 @@
         <f t="shared" si="7"/>
         <v>6.3076937148216189E-2</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="7">
         <f t="shared" si="8"/>
         <v>5.5288357200943793E-2</v>
       </c>
@@ -11100,7 +12202,7 @@
         <f t="shared" si="1"/>
         <v>2.9999626331006262</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <f t="shared" si="2"/>
         <v>2.6295348688001714</v>
       </c>
@@ -11132,7 +12234,7 @@
         <f t="shared" si="4"/>
         <v>6.0039986675548315E-2</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="7">
         <f t="shared" si="5"/>
         <v>5.26264016570357E-2</v>
       </c>
@@ -11164,7 +12266,7 @@
         <f t="shared" si="7"/>
         <v>6.2076565626651925E-2</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="7">
         <f t="shared" si="8"/>
         <v>5.4411509013341824E-2</v>
       </c>
@@ -11200,7 +12302,7 @@
         <f t="shared" si="1"/>
         <v>3.3890328266335858</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <f t="shared" si="2"/>
         <v>2.9705636632983032</v>
       </c>
@@ -11232,7 +12334,7 @@
         <f t="shared" si="4"/>
         <v>6.1050798520576176E-2</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="7">
         <f t="shared" si="5"/>
         <v>5.3512401023484424E-2</v>
       </c>
@@ -11264,7 +12366,7 @@
         <f t="shared" si="7"/>
         <v>6.3401892716227468E-2</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="7">
         <f t="shared" si="8"/>
         <v>5.5573188080991549E-2</v>
       </c>
@@ -11300,7 +12402,7 @@
         <f t="shared" si="1"/>
         <v>2.8087054847384798</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <f t="shared" si="2"/>
         <v>2.4618936672143508</v>
       </c>
@@ -11332,7 +12434,7 @@
         <f t="shared" si="4"/>
         <v>6.3508267178376432E-2</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="7">
         <f t="shared" si="5"/>
         <v>5.5666427694806821E-2</v>
       </c>
@@ -11363,7 +12465,7 @@
         <f t="shared" si="7"/>
         <v>6.4639771039198643E-2</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="7">
         <f t="shared" si="8"/>
         <v>5.6658216333566921E-2</v>
       </c>
@@ -11399,7 +12501,7 @@
         <f t="shared" si="1"/>
         <v>3.042485776466338</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <f t="shared" si="2"/>
         <v>2.6668073624563875</v>
       </c>
@@ -11431,7 +12533,7 @@
         <f t="shared" si="4"/>
         <v>5.9036429431326524E-2</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="7">
         <f t="shared" si="5"/>
         <v>5.1746761111716381E-2</v>
       </c>
@@ -11463,7 +12565,7 @@
         <f t="shared" si="7"/>
         <v>6.1853051662792126E-2</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="7">
         <f t="shared" si="8"/>
         <v>5.4215593985885088E-2</v>
       </c>
@@ -11499,7 +12601,7 @@
         <f t="shared" si="1"/>
         <v>3.5105471795718737</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <f t="shared" si="2"/>
         <v>3.0770737326522908</v>
       </c>
@@ -11531,7 +12633,7 @@
         <f t="shared" si="4"/>
         <v>6.3061081500399491E-2</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="7">
         <f t="shared" si="5"/>
         <v>5.5274459368237015E-2</v>
       </c>
@@ -11562,7 +12664,7 @@
         <f t="shared" si="7"/>
         <v>6.2064482596731668E-2</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="7">
         <f t="shared" si="8"/>
         <v>5.4400917965258255E-2</v>
       </c>
@@ -11598,7 +12700,7 @@
         <f t="shared" si="1"/>
         <v>3.3373199277264294</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <f t="shared" si="2"/>
         <v>2.9252361417676225</v>
       </c>
@@ -11630,7 +12732,7 @@
         <f t="shared" si="4"/>
         <v>6.2503599896325854E-2</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="7">
         <f t="shared" si="5"/>
         <v>5.4785814176309677E-2</v>
       </c>
@@ -11661,7 +12763,7 @@
         <f t="shared" si="7"/>
         <v>6.3405835693569848E-2</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="7">
         <f t="shared" si="8"/>
         <v>5.5576644189509125E-2</v>
       </c>
@@ -11697,7 +12799,7 @@
         <f t="shared" si="1"/>
         <v>3.3421892076900717</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <f t="shared" si="2"/>
         <v>2.9295041754121329</v>
       </c>
@@ -11729,7 +12831,7 @@
         <f t="shared" si="4"/>
         <v>6.0833378995416437E-2</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="7">
         <f t="shared" si="5"/>
         <v>5.3321827908920448E-2</v>
       </c>
@@ -11760,7 +12862,7 @@
         <f t="shared" si="7"/>
         <v>6.2202893823358217E-2</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="7">
         <f t="shared" si="8"/>
         <v>5.4522238525265283E-2</v>
       </c>
@@ -11796,7 +12898,7 @@
         <f t="shared" si="1"/>
         <v>2.9499516606208998</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <f t="shared" si="2"/>
         <v>2.585699124145536</v>
       </c>
@@ -11828,7 +12930,7 @@
         <f t="shared" si="4"/>
         <v>6.0833378995416437E-2</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="7">
         <f t="shared" si="5"/>
         <v>5.3321827908920448E-2</v>
       </c>
@@ -11860,7 +12962,7 @@
         <f t="shared" si="7"/>
         <v>6.1973381382654943E-2</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="7">
         <f t="shared" si="8"/>
         <v>5.4321065697646116E-2</v>
       </c>
@@ -11896,7 +12998,7 @@
         <f t="shared" si="1"/>
         <v>3.5396294015051897</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <f t="shared" si="2"/>
         <v>3.1025649557068928</v>
       </c>
@@ -11928,7 +13030,7 @@
         <f t="shared" si="4"/>
         <v>5.9492016271092775E-2</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="7">
         <f t="shared" si="5"/>
         <v>5.2146093245961547E-2</v>
       </c>
@@ -11958,7 +13060,7 @@
         <f t="shared" si="7"/>
         <v>6.3174361888348088E-2</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="7">
         <f t="shared" si="8"/>
         <v>5.5373752181679219E-2</v>
       </c>
@@ -11994,7 +13096,7 @@
         <f t="shared" si="1"/>
         <v>3.7533509961100044</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <f t="shared" si="2"/>
         <v>3.2898967507859833</v>
       </c>
@@ -12026,7 +13128,7 @@
         <f t="shared" si="4"/>
         <v>6.0825159268184638E-2</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="7">
         <f t="shared" si="5"/>
         <v>5.3314623132724386E-2</v>
       </c>
@@ -12057,7 +13159,7 @@
         <f t="shared" si="7"/>
         <v>6.4429806766744174E-2</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="7">
         <f t="shared" si="8"/>
         <v>5.6474177916044817E-2</v>
       </c>
@@ -12093,7 +13195,7 @@
         <f t="shared" si="1"/>
         <v>3.9002986680509499</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <f t="shared" si="2"/>
         <v>3.4186996975274746</v>
       </c>
@@ -12125,7 +13227,7 @@
         <f t="shared" si="4"/>
         <v>5.9626336463009223E-2</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="7">
         <f t="shared" si="5"/>
         <v>5.2263827921830888E-2</v>
       </c>
@@ -12155,7 +13257,7 @@
         <f t="shared" si="7"/>
         <v>6.072314221118659E-2</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="7">
         <f t="shared" si="8"/>
         <v>5.3225202882742316E-2</v>
       </c>
@@ -12191,7 +13293,7 @@
         <f t="shared" si="1"/>
         <v>4.7800212551828745</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <f t="shared" si="2"/>
         <v>4.1897963746029525</v>
       </c>
@@ -12223,7 +13325,7 @@
         <f t="shared" si="4"/>
         <v>6.1422308650847843E-2</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="7">
         <f t="shared" si="5"/>
         <v>5.3838038026720075E-2</v>
       </c>
@@ -12255,7 +13357,7 @@
         <f t="shared" si="7"/>
         <v>6.262188115986303E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="7">
         <f t="shared" si="8"/>
         <v>5.48894903699279E-2</v>
       </c>
@@ -12291,7 +13393,7 @@
         <f t="shared" si="1"/>
         <v>4.2876272925710319</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <f t="shared" si="2"/>
         <v>3.7582019675298497</v>
       </c>
@@ -12323,7 +13425,7 @@
         <f t="shared" si="4"/>
         <v>5.9686681931566808E-2</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="7">
         <f t="shared" si="5"/>
         <v>5.2316722085243274E-2</v>
       </c>
@@ -12355,7 +13457,7 @@
         <f t="shared" si="7"/>
         <v>6.3737743919909898E-2</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="7">
         <f t="shared" si="8"/>
         <v>5.5867569231298972E-2</v>
       </c>
@@ -12391,7 +13493,7 @@
         <f t="shared" si="1"/>
         <v>4.3395763272467063</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <f t="shared" si="2"/>
         <v>3.8037364673842728</v>
       </c>
@@ -12423,7 +13525,7 @@
         <f t="shared" si="4"/>
         <v>6.084159761216007E-2</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="7">
         <f t="shared" si="5"/>
         <v>5.332903171174861E-2</v>
       </c>
@@ -12455,7 +13557,7 @@
         <f t="shared" si="7"/>
         <v>6.307297360993841E-2</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="7">
         <f t="shared" si="8"/>
         <v>5.5284883070302882E-2</v>
       </c>
@@ -12491,7 +13593,7 @@
         <f t="shared" si="1"/>
         <v>3.5303401394200038</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <f t="shared" si="2"/>
         <v>3.0944227081039037</v>
       </c>
@@ -12523,7 +13625,7 @@
         <f t="shared" si="4"/>
         <v>6.1389738556211382E-2</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="7">
         <f t="shared" si="5"/>
         <v>5.3809489604622507E-2</v>
       </c>
@@ -12555,7 +13657,7 @@
         <f t="shared" si="7"/>
         <v>6.2182795048148283E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="7">
         <f t="shared" si="8"/>
         <v>5.4504621495755794E-2</v>
       </c>
@@ -12591,7 +13693,7 @@
         <f t="shared" si="1"/>
         <v>2.8742915127036053</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <f t="shared" si="2"/>
         <v>2.5193812990726689</v>
       </c>
@@ -12623,7 +13725,7 @@
         <f t="shared" si="4"/>
         <v>6.1719526893844669E-2</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="7">
         <f t="shared" si="5"/>
         <v>5.4098556516177364E-2</v>
       </c>
@@ -12654,7 +13756,7 @@
         <f t="shared" si="7"/>
         <v>6.4410402886490248E-2</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="7">
         <f t="shared" si="8"/>
         <v>5.6457169977627598E-2</v>
       </c>
@@ -12690,7 +13792,7 @@
         <f t="shared" si="1"/>
         <v>3.347385502149403</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <f t="shared" si="2"/>
         <v>2.9340588446332099</v>
       </c>
@@ -12722,7 +13824,7 @@
         <f t="shared" si="4"/>
         <v>6.1046703432700009E-2</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="7">
         <f t="shared" si="5"/>
         <v>5.3508811586655318E-2</v>
       </c>
@@ -12754,7 +13856,7 @@
         <f t="shared" si="7"/>
         <v>6.2080592780675105E-2</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="7">
         <f t="shared" si="8"/>
         <v>5.4415038904617512E-2</v>
       </c>
@@ -12790,7 +13892,7 @@
         <f t="shared" si="1"/>
         <v>3.8987177379235832E-3</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="7">
         <f t="shared" si="2"/>
         <v>3.4173139766357609E-3</v>
       </c>
@@ -12822,7 +13924,7 @@
         <f t="shared" si="4"/>
         <v>4.4721359549995798E-3</v>
       </c>
-      <c r="R22">
+      <c r="R22" s="7">
         <f t="shared" si="5"/>
         <v>3.9199279690801071E-3</v>
       </c>
@@ -12854,7 +13956,7 @@
         <f t="shared" si="7"/>
         <v>4.9193495504995348E-3</v>
       </c>
-      <c r="AA22">
+      <c r="AA22" s="7">
         <f t="shared" si="8"/>
         <v>4.3119207659881153E-3</v>
       </c>
@@ -12890,7 +13992,7 @@
         <f t="shared" si="1"/>
         <v>6.4187226143524916E-3</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="7">
         <f t="shared" si="2"/>
         <v>5.6261550531886018E-3</v>
       </c>
@@ -12922,7 +14024,7 @@
         <f t="shared" si="4"/>
         <v>5.2725705305856291E-3</v>
       </c>
-      <c r="R23">
+      <c r="R23" s="7">
         <f t="shared" si="5"/>
         <v>4.6215269168381288E-3</v>
       </c>
@@ -12954,7 +14056,7 @@
         <f t="shared" si="7"/>
         <v>5.7183913821983196E-3</v>
       </c>
-      <c r="AA23">
+      <c r="AA23" s="7">
         <f t="shared" si="8"/>
         <v>5.0122989423357E-3</v>
       </c>
@@ -12990,7 +14092,7 @@
         <f t="shared" si="1"/>
         <v>1.7052611823412236</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="7">
         <f t="shared" si="2"/>
         <v>1.4946998638923541</v>
       </c>
@@ -13022,7 +14124,7 @@
         <f t="shared" si="4"/>
         <v>2.3593157270700313</v>
       </c>
-      <c r="R24">
+      <c r="R24" s="7">
         <f t="shared" si="5"/>
         <v>2.0679934151137078</v>
       </c>
@@ -13054,7 +14156,7 @@
         <f t="shared" si="7"/>
         <v>1.466097609301642</v>
       </c>
-      <c r="AA24">
+      <c r="AA24" s="7">
         <f t="shared" si="8"/>
         <v>1.2850676012383273</v>
       </c>
@@ -13090,7 +14192,7 @@
         <f t="shared" si="1"/>
         <v>7.3459453442018674</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="7">
         <f t="shared" si="2"/>
         <v>6.43888667603653</v>
       </c>
@@ -13122,7 +14224,7 @@
         <f t="shared" si="4"/>
         <v>4.6582760008397903</v>
       </c>
-      <c r="R25">
+      <c r="R25" s="7">
         <f t="shared" si="5"/>
         <v>4.0830839149630096</v>
       </c>
@@ -13153,14 +14255,14 @@
         <f t="shared" si="7"/>
         <v>3.5162429239175155</v>
       </c>
-      <c r="AA25">
+      <c r="AA25" s="7">
         <f t="shared" si="8"/>
         <v>3.0820661809566072</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D23 K19:K20 L11 M4 M9 M13 N18 N5 N16 O15 M2 U5:V5 U13 U16:U17 V8 V14 V16:W16 V18:V19 V20 W12 V2:V3" formula="1"/>
   </ignoredErrors>

--- a/hs/KernelPerceptron/KP_Performance_Results.xlsx
+++ b/hs/KernelPerceptron/KP_Performance_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Documents\MLCert\hs\KernelPerceptron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EE4B3E-433F-4A2B-9068-AF0CB42E0350}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9C268B-1A5A-4B7F-A09E-748757B3BB61}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="273">
   <si>
     <t>Data File Index</t>
   </si>
@@ -805,6 +805,54 @@
   </si>
   <si>
     <t>KPD_CI</t>
+  </si>
+  <si>
+    <t>PyB_1</t>
+  </si>
+  <si>
+    <t>PyB_2</t>
+  </si>
+  <si>
+    <t>PyB_3</t>
+  </si>
+  <si>
+    <t>PyB_4</t>
+  </si>
+  <si>
+    <t>PyB_5</t>
+  </si>
+  <si>
+    <t>PyB_Ave</t>
+  </si>
+  <si>
+    <t>PyB_STD</t>
+  </si>
+  <si>
+    <t>PyB_CI</t>
+  </si>
+  <si>
+    <t>PyBN_1</t>
+  </si>
+  <si>
+    <t>PyBN_2</t>
+  </si>
+  <si>
+    <t>PyBN_3</t>
+  </si>
+  <si>
+    <t>PyBN_4</t>
+  </si>
+  <si>
+    <t>PyBN_5</t>
+  </si>
+  <si>
+    <t>PyBN_Ave</t>
+  </si>
+  <si>
+    <t>PyBN_STD</t>
+  </si>
+  <si>
+    <t>PyBN_CI</t>
   </si>
 </sst>
 </file>
@@ -816,7 +864,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,6 +876,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2873,7 +2927,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -5251,6 +5304,682 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Haskel KPB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>TimingCalc!$P$2:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.3498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.34500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.34680000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.35320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.34860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.34920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.34440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.35799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.34920000000000007</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.34760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.3498</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F23-4FF0-8904-EECBE1B1AA0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Naive Python KPB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>TimingCalc!$G$28:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82159999999999989</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81980000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82159999999999989</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.82199999999999984</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82479999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.82319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.82199999999999984</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8206</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.82319999999999993</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.81899999999999973</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.82340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.82360000000000011</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.82079999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F23-4FF0-8904-EECBE1B1AA0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Numpy Python KPB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:val>
+            <c:numRef>
+              <c:f>TimingCalc!$P$28:$P$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.42659999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.40240000000000009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40879999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.42080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42359999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.41920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.41459999999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.41839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.42099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.41879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.43260000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.39600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.41039999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.4204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.42399999999999993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.42259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.42219999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2F23-4FF0-8904-EECBE1B1AA0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="330615880"/>
+        <c:axId val="330618176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="330615880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Trial</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Index</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330618176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="330618176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (Seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="330615880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
   <a:schemeClr val="accent3"/>
@@ -5302,6 +6031,33 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -7315,6 +8071,509 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7999,6 +9258,47 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E9C285D-9DC1-4D20-9CBD-1382F19BD2CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8272,8 +9572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11351,7 +12651,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11786,10 +13086,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8B9939-293C-4DC9-8D3A-5A6F24858279}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14260,11 +15560,1244 @@
         <v>3.0820661809566072</v>
       </c>
     </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="C28">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D28">
+        <v>0.82</v>
+      </c>
+      <c r="E28">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F28">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G28">
+        <f>AVERAGE(B28:F28)</f>
+        <v>0.82</v>
+      </c>
+      <c r="H28">
+        <f>_xlfn.STDEV.S(B28:F28)</f>
+        <v>1.5811388300841912E-3</v>
+      </c>
+      <c r="I28" s="7">
+        <f>_xlfn.CONFIDENCE.NORM(0.05, H28, 5)</f>
+        <v>1.3859038243496788E-3</v>
+      </c>
+      <c r="K28">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="M28">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="N28">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="O28">
+        <v>0.433</v>
+      </c>
+      <c r="P28">
+        <f>AVERAGE(K28:O28)</f>
+        <v>0.42659999999999998</v>
+      </c>
+      <c r="Q28">
+        <f>_xlfn.STDEV.S(K28:O28)</f>
+        <v>4.3358966777357639E-3</v>
+      </c>
+      <c r="R28" s="7">
+        <f>_xlfn.CONFIDENCE.NORM(0.05, Q28, 5)</f>
+        <v>3.8005111716465103E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0.82</v>
+      </c>
+      <c r="C29">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D29">
+        <v>0.82</v>
+      </c>
+      <c r="E29">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="F29">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ref="G29:G47" si="9">AVERAGE(B29:F29)</f>
+        <v>0.82159999999999989</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ref="H29:H47" si="10">_xlfn.STDEV.S(B29:F29)</f>
+        <v>2.5099800796022287E-3</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" ref="I29:I47" si="11">_xlfn.CONFIDENCE.NORM(0.05, H29, 5)</f>
+        <v>2.2000541161695552E-3</v>
+      </c>
+      <c r="K29">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="L29">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="M29">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="N29">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="O29">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:P47" si="12">AVERAGE(K29:O29)</f>
+        <v>0.40240000000000009</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" ref="Q29:Q47" si="13">_xlfn.STDEV.S(K29:O29)</f>
+        <v>8.9442719099991667E-4</v>
+      </c>
+      <c r="R29" s="7">
+        <f t="shared" ref="R29:R47" si="14">_xlfn.CONFIDENCE.NORM(0.05, Q29, 5)</f>
+        <v>7.8398559381602213E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="C30">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D30">
+        <v>0.82</v>
+      </c>
+      <c r="E30">
+        <v>0.82</v>
+      </c>
+      <c r="F30">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="G30">
+        <f>AVERAGE(B30:F30)</f>
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="10"/>
+        <v>1.2247448713915902E-3</v>
+      </c>
+      <c r="I30" s="7">
+        <f t="shared" si="11"/>
+        <v>1.073516486230295E-3</v>
+      </c>
+      <c r="K30">
+        <v>0.41</v>
+      </c>
+      <c r="L30">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="M30">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="N30">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="O30">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="12"/>
+        <v>0.40879999999999994</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="13"/>
+        <v>8.366600265340764E-4</v>
+      </c>
+      <c r="R30" s="7">
+        <f t="shared" si="14"/>
+        <v>7.3335137205651855E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="C31">
+        <v>0.82</v>
+      </c>
+      <c r="D31">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="E31">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F31">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="9"/>
+        <v>0.81980000000000008</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="10"/>
+        <v>1.9235384061671362E-3</v>
+      </c>
+      <c r="I31" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6860247706702461E-3</v>
+      </c>
+      <c r="K31">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="L31">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="M31">
+        <v>0.42</v>
+      </c>
+      <c r="N31">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="O31">
+        <v>0.42</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="12"/>
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="13"/>
+        <v>8.3666002653407629E-4</v>
+      </c>
+      <c r="R31" s="7">
+        <f t="shared" si="14"/>
+        <v>7.3335137205651844E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="C32">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D32">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E32">
+        <v>0.82</v>
+      </c>
+      <c r="F32">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="9"/>
+        <v>0.82159999999999989</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="10"/>
+        <v>3.1304951684997086E-3</v>
+      </c>
+      <c r="I32" s="7">
+        <f t="shared" si="11"/>
+        <v>2.7439495783560777E-3</v>
+      </c>
+      <c r="K32">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="L32">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="M32">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="N32">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="12"/>
+        <v>0.42359999999999998</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="13"/>
+        <v>5.4772255750516654E-4</v>
+      </c>
+      <c r="R32" s="7">
+        <f t="shared" si="14"/>
+        <v>4.8009116763553125E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C33">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D33">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E33">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F33">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="9"/>
+        <v>0.82199999999999984</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="10"/>
+        <v>1.22474487139159E-3</v>
+      </c>
+      <c r="I33" s="7">
+        <f t="shared" si="11"/>
+        <v>1.0735164862302948E-3</v>
+      </c>
+      <c r="K33">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="L33">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="M33">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="N33">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="12"/>
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="13"/>
+        <v>8.3666002653407629E-4</v>
+      </c>
+      <c r="R33" s="7">
+        <f t="shared" si="14"/>
+        <v>7.3335137205651844E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>0.82</v>
+      </c>
+      <c r="C34">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D34">
+        <v>0.82</v>
+      </c>
+      <c r="E34">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F34">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="9"/>
+        <v>0.8206</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="10"/>
+        <v>1.3416407864998751E-3</v>
+      </c>
+      <c r="I34" s="7">
+        <f t="shared" si="11"/>
+        <v>1.175978390724033E-3</v>
+      </c>
+      <c r="K34">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="L34">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="M34">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="N34">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="O34">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="12"/>
+        <v>0.42180000000000001</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="13"/>
+        <v>1.3038404810405309E-3</v>
+      </c>
+      <c r="R34" s="7">
+        <f t="shared" si="14"/>
+        <v>1.1428455709482381E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="C35">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D35">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E35">
+        <v>0.82899999999999996</v>
+      </c>
+      <c r="F35">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="9"/>
+        <v>0.82479999999999998</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="10"/>
+        <v>2.3874672772626667E-3</v>
+      </c>
+      <c r="I35" s="7">
+        <f t="shared" si="11"/>
+        <v>2.0926688834097258E-3</v>
+      </c>
+      <c r="K35">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="L35">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="M35">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="N35">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O35">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="12"/>
+        <v>0.41920000000000002</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="13"/>
+        <v>2.7748873851023243E-3</v>
+      </c>
+      <c r="R35" s="7">
+        <f t="shared" si="14"/>
+        <v>2.4322513406037955E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="C36">
+        <v>0.82</v>
+      </c>
+      <c r="D36">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E36">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F36">
+        <v>0.82</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="9"/>
+        <v>0.82</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="10"/>
+        <v>1.2247448713915902E-3</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" si="11"/>
+        <v>1.073516486230295E-3</v>
+      </c>
+      <c r="K36">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="L36">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M36">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="N36">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="O36">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="12"/>
+        <v>0.41459999999999997</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="13"/>
+        <v>8.9442719099991667E-4</v>
+      </c>
+      <c r="R36" s="7">
+        <f t="shared" si="14"/>
+        <v>7.8398559381602213E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="C37">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D37">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E37">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="F37">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>0.82319999999999993</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="10"/>
+        <v>1.7888543819998333E-3</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="11"/>
+        <v>1.5679711876320443E-3</v>
+      </c>
+      <c r="K37">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="L37">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="M37">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="N37">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="O37">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="12"/>
+        <v>0.41839999999999999</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="13"/>
+        <v>5.4772255750516654E-4</v>
+      </c>
+      <c r="R37" s="7">
+        <f t="shared" si="14"/>
+        <v>4.8009116763553125E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="C38">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D38">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E38">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F38">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>0.82199999999999984</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="10"/>
+        <v>2.236067977499792E-3</v>
+      </c>
+      <c r="I38" s="7">
+        <f t="shared" si="11"/>
+        <v>1.9599639845400557E-3</v>
+      </c>
+      <c r="K38">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.42</v>
+      </c>
+      <c r="M38">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="N38">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="O38">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="12"/>
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="13"/>
+        <v>7.0710678118654816E-4</v>
+      </c>
+      <c r="R38" s="7">
+        <f t="shared" si="14"/>
+        <v>6.1979503230456194E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C39">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D39">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E39">
+        <v>0.82</v>
+      </c>
+      <c r="F39">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>0.8206</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="10"/>
+        <v>1.6733200530681526E-3</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" si="11"/>
+        <v>1.4667027441130369E-3</v>
+      </c>
+      <c r="K39">
+        <v>0.42</v>
+      </c>
+      <c r="L39">
+        <v>0.42</v>
+      </c>
+      <c r="M39">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="N39">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="O39">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="12"/>
+        <v>0.41879999999999995</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="13"/>
+        <v>1.3038404810405309E-3</v>
+      </c>
+      <c r="R39" s="7">
+        <f t="shared" si="14"/>
+        <v>1.1428455709482381E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="C40">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D40">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E40">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F40">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>0.82319999999999993</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="10"/>
+        <v>3.3466401061363052E-3</v>
+      </c>
+      <c r="I40" s="7">
+        <f t="shared" si="11"/>
+        <v>2.9334054882260738E-3</v>
+      </c>
+      <c r="K40">
+        <v>0.433</v>
+      </c>
+      <c r="L40">
+        <v>0.433</v>
+      </c>
+      <c r="M40">
+        <v>0.432</v>
+      </c>
+      <c r="N40">
+        <v>0.433</v>
+      </c>
+      <c r="O40">
+        <v>0.432</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="12"/>
+        <v>0.43260000000000004</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="13"/>
+        <v>5.4772255750516654E-4</v>
+      </c>
+      <c r="R40" s="7">
+        <f t="shared" si="14"/>
+        <v>4.8009116763553125E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="C41">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D41">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="E41">
+        <v>0.82</v>
+      </c>
+      <c r="F41">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="9"/>
+        <v>0.81899999999999973</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="10"/>
+        <v>1.8708286933869723E-3</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="11"/>
+        <v>1.639823519311115E-3</v>
+      </c>
+      <c r="K41">
+        <v>0.4</v>
+      </c>
+      <c r="L41">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="M41">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="N41">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="O41">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="12"/>
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="13"/>
+        <v>2.3452078799117166E-3</v>
+      </c>
+      <c r="R41" s="7">
+        <f t="shared" si="14"/>
+        <v>2.055627569080436E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>15</v>
+      </c>
+      <c r="B42">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="C42">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D42">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="E42">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="F42">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>0.82340000000000002</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="10"/>
+        <v>2.3021728866442696E-3</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="11"/>
+        <v>2.0179064274479571E-3</v>
+      </c>
+      <c r="K42">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="L42">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="M42">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="N42">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="O42">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="12"/>
+        <v>0.41360000000000002</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="13"/>
+        <v>8.9442719099991667E-4</v>
+      </c>
+      <c r="R42" s="7">
+        <f t="shared" si="14"/>
+        <v>7.8398559381602213E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>16</v>
+      </c>
+      <c r="B43">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="C43">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D43">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E43">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="F43">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>0.82360000000000011</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="10"/>
+        <v>2.7018512172212617E-3</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="11"/>
+        <v>2.3682334931787088E-3</v>
+      </c>
+      <c r="K43">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="L43">
+        <v>0.41</v>
+      </c>
+      <c r="M43">
+        <v>0.41</v>
+      </c>
+      <c r="N43">
+        <v>0.41</v>
+      </c>
+      <c r="O43">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="12"/>
+        <v>0.41039999999999993</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="13"/>
+        <v>5.4772255750516665E-4</v>
+      </c>
+      <c r="R43" s="7">
+        <f t="shared" si="14"/>
+        <v>4.8009116763553136E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44">
+        <v>0.82</v>
+      </c>
+      <c r="C44">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D44">
+        <v>0.82</v>
+      </c>
+      <c r="E44">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="F44">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>0.82079999999999986</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="10"/>
+        <v>8.366600265340764E-4</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="11"/>
+        <v>7.3335137205651855E-4</v>
+      </c>
+      <c r="K44">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="L44">
+        <v>0.42</v>
+      </c>
+      <c r="M44">
+        <v>0.42</v>
+      </c>
+      <c r="N44">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="O44">
+        <v>0.42</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="12"/>
+        <v>0.4204</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="13"/>
+        <v>1.5165750888103116E-3</v>
+      </c>
+      <c r="R44" s="7">
+        <f t="shared" si="14"/>
+        <v>1.3293122498191689E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="C45">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D45">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="E45">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="F45">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>0.82</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="10"/>
+        <v>1.8708286933869726E-3</v>
+      </c>
+      <c r="I45" s="7">
+        <f t="shared" si="11"/>
+        <v>1.6398235193111153E-3</v>
+      </c>
+      <c r="K45">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="M45">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="N45">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="O45">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="12"/>
+        <v>0.42399999999999993</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="13"/>
+        <v>7.0710678118654816E-4</v>
+      </c>
+      <c r="R45" s="7">
+        <f t="shared" si="14"/>
+        <v>6.1979503230456194E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="C46">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D46">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="E46">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="F46">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="9"/>
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="10"/>
+        <v>2.1213203435596446E-3</v>
+      </c>
+      <c r="I46" s="7">
+        <f t="shared" si="11"/>
+        <v>1.8593850969136861E-3</v>
+      </c>
+      <c r="K46">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="L46">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="M46">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="N46">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="O46">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="12"/>
+        <v>0.42259999999999998</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="13"/>
+        <v>5.4772255750516654E-4</v>
+      </c>
+      <c r="R46" s="7">
+        <f t="shared" si="14"/>
+        <v>4.8009116763553125E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="C47">
+        <v>0.82</v>
+      </c>
+      <c r="D47">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="E47">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="F47">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="9"/>
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="10"/>
+        <v>2.1213203435596446E-3</v>
+      </c>
+      <c r="I47" s="7">
+        <f t="shared" si="11"/>
+        <v>1.8593850969136861E-3</v>
+      </c>
+      <c r="K47">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="L47">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="M47">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="N47">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="O47">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="12"/>
+        <v>0.42219999999999996</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="13"/>
+        <v>8.3666002653407629E-4</v>
+      </c>
+      <c r="R47" s="7">
+        <f t="shared" si="14"/>
+        <v>7.3335137205651844E-4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="360" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D23 K19:K20 L11 M4 M9 M13 N18 N5 N16 O15 M2 U5:V5 U13 U16:U17 V8 V14 V16:W16 V18:V19 V20 W12 V2:V3" formula="1"/>
   </ignoredErrors>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>